--- a/Turma Home Jan2018/1° Sabado/Aula 2/Aula Concatenar.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 2/Aula Concatenar.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB225D1-479D-4FCC-A49F-2044D96B1CD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Márcio</t>
   </si>
@@ -90,9 +98,6 @@
   </si>
   <si>
     <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Idade</t>
   </si>
 </sst>
 </file>
@@ -242,20 +247,20 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,142 +286,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1507433</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>563217</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171129</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6255279" y="0"/>
-          <a:ext cx="1686150" cy="361629"/>
-          <a:chOff x="9009915" y="332447"/>
-          <a:chExt cx="3182085" cy="978406"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="22842"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9009915" y="332447"/>
-            <a:ext cx="3177322" cy="753404"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId3">
-                    <a14:imgEffect>
-                      <a14:brightnessContrast bright="20000" contrast="-40000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect t="76760"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9014678" y="1083922"/>
-            <a:ext cx="3177322" cy="226931"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -901,200 +770,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="1.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2" t="str">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="1" t="str">
         <f>CONCATENATE("Nome: ",B9,"|","Time: ",$B$21,"|","Idade: ",$D$18)</f>
         <v xml:space="preserve">Nome: Márcio|Time: São Paulo|Idade: </v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1107,28 +976,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CC0A26-3C1E-429B-AC11-2CF847A0827C}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView zoomScale="350" zoomScaleNormal="350" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="str">
-        <f ca="1">CONCATENATE(A1," ",RANDBETWEEN(25,35))</f>
-        <v>Idade 33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>